--- a/DS/001_設計書/001_基本設計書/DS基本設計書_受注管理画面.xlsx
+++ b/DS/001_設計書/001_基本設計書/DS基本設計書_受注管理画面.xlsx
@@ -5,14 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="検索画面" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="アプリ画面１" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="アプリ画面２" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="×" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="詳細画面" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="アプリ画面１" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="アプリ画面２" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="×" sheetId="6" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -458,9 +459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -470,7 +471,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="572760" y="228960"/>
-          <a:ext cx="10545120" cy="6922080"/>
+          <a:ext cx="10544400" cy="6921360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -510,9 +511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -522,7 +523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="572760" y="228960"/>
-          <a:ext cx="10545120" cy="365400"/>
+          <a:ext cx="10544400" cy="364680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -586,9 +587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>227880</xdr:colOff>
+      <xdr:colOff>227160</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>224640</xdr:rowOff>
+      <xdr:rowOff>223920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -598,7 +599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7122600" y="804600"/>
-          <a:ext cx="1123920" cy="334440"/>
+          <a:ext cx="1123200" cy="333720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -660,9 +661,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>5040</xdr:rowOff>
+      <xdr:rowOff>4320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -672,7 +673,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5957280" y="815760"/>
-          <a:ext cx="1069200" cy="332280"/>
+          <a:ext cx="1068480" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,9 +744,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>269280</xdr:colOff>
+      <xdr:colOff>268560</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>180720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -755,7 +756,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10075320" y="1668240"/>
-          <a:ext cx="790200" cy="342000"/>
+          <a:ext cx="789480" cy="341280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -817,9 +818,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>244800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -829,7 +830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="770400" y="2106000"/>
-          <a:ext cx="10071360" cy="4151880"/>
+          <a:ext cx="10070640" cy="4151160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -872,7 +873,7 @@
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:rPr>
-            <a:t>人員テーブルの検索データを表示</a:t>
+            <a:t>受注テーブルの検索データを表示</a:t>
           </a:r>
           <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
@@ -884,16 +885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>127800</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>82080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>218160</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -902,82 +903,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9578160" y="6382080"/>
-          <a:ext cx="1263600" cy="342000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="ffff00"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor"/>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="3b3838"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-            </a:rPr>
-            <a:t>変更・削除</a:t>
-          </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
-            <a:latin typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="twoCell">
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>48960</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>94680</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="CustomShape 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8067600" y="6382080"/>
-          <a:ext cx="996120" cy="342000"/>
+          <a:off x="9819000" y="6447600"/>
+          <a:ext cx="995400" cy="341280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1041,26 +968,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>236880</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>214200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>88560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="CustomShape 1"/>
+        <xdr:cNvPr id="7" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7682760" y="7039440"/>
-          <a:ext cx="4225320" cy="1018080"/>
+          <a:off x="9302040" y="7072200"/>
+          <a:ext cx="4224600" cy="1017360"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -1167,19 +1094,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="CustomShape 1"/>
+        <xdr:cNvPr id="8" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="612000" y="804600"/>
-          <a:ext cx="5170320" cy="588600"/>
+          <a:ext cx="5169600" cy="587880"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -1209,19 +1136,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>227160</xdr:colOff>
+      <xdr:colOff>226440</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="CustomShape 1"/>
+        <xdr:cNvPr id="9" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2351520" y="861120"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="165960" cy="169560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1350,19 +1277,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="CustomShape 1"/>
+        <xdr:cNvPr id="10" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2565000" y="860760"/>
-          <a:ext cx="680400" cy="160920"/>
+          <a:ext cx="679680" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1413,19 +1340,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>77400</xdr:colOff>
+      <xdr:colOff>76680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="CustomShape 1"/>
+        <xdr:cNvPr id="11" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3347280" y="871560"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="165960" cy="169560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1554,19 +1481,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>231840</xdr:colOff>
+      <xdr:colOff>231120</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="CustomShape 1"/>
+        <xdr:cNvPr id="12" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3560760" y="871200"/>
-          <a:ext cx="680400" cy="160920"/>
+          <a:ext cx="679680" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,19 +1544,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>284760</xdr:colOff>
+      <xdr:colOff>284040</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="CustomShape 1"/>
+        <xdr:cNvPr id="13" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4413600" y="852840"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="165960" cy="169560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1758,19 +1685,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>99000</xdr:rowOff>
+      <xdr:rowOff>98280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="CustomShape 1"/>
+        <xdr:cNvPr id="14" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4627080" y="852480"/>
-          <a:ext cx="680400" cy="160920"/>
+          <a:ext cx="679680" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1821,19 +1748,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="CustomShape 1"/>
+        <xdr:cNvPr id="15" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2351160" y="1095120"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="165960" cy="169560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1962,19 +1889,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="CustomShape 1"/>
+        <xdr:cNvPr id="16" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2564640" y="1094760"/>
-          <a:ext cx="680400" cy="160920"/>
+          <a:ext cx="679680" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2025,19 +1952,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9000</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:rowOff>8640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="CustomShape 1"/>
+        <xdr:cNvPr id="17" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="682200" y="734400"/>
-          <a:ext cx="1617840" cy="417960"/>
+          <a:ext cx="1617120" cy="417240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2099,19 +2026,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>86760</xdr:colOff>
+      <xdr:colOff>86040</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>137880</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="CustomShape 1"/>
+        <xdr:cNvPr id="18" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3356640" y="1110600"/>
-          <a:ext cx="166680" cy="170280"/>
+          <a:ext cx="165960" cy="169560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2240,19 +2167,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>241200</xdr:colOff>
+      <xdr:colOff>240480</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="CustomShape 1"/>
+        <xdr:cNvPr id="19" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3570120" y="1110240"/>
-          <a:ext cx="680400" cy="160920"/>
+          <a:ext cx="679680" cy="160200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2303,19 +2230,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>54720</xdr:colOff>
+      <xdr:colOff>54000</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>180360</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="CustomShape 1"/>
+        <xdr:cNvPr id="20" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="612360" y="1585800"/>
-          <a:ext cx="5169960" cy="423360"/>
+          <a:ext cx="5169240" cy="422640"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartProcess">
           <a:avLst/>
@@ -2345,19 +2272,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>226800</xdr:colOff>
+      <xdr:colOff>226080</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>211680</xdr:rowOff>
+      <xdr:rowOff>210960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="CustomShape 1"/>
+        <xdr:cNvPr id="21" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2351880" y="1642320"/>
-          <a:ext cx="165960" cy="169560"/>
+          <a:ext cx="165240" cy="168840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2486,19 +2413,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>131040</xdr:colOff>
+      <xdr:colOff>130320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="CustomShape 1"/>
+        <xdr:cNvPr id="22" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2601360" y="1641960"/>
-          <a:ext cx="679680" cy="160200"/>
+          <a:ext cx="678960" cy="159480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2549,19 +2476,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>149040</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>222120</xdr:rowOff>
+      <xdr:rowOff>221400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="CustomShape 1"/>
+        <xdr:cNvPr id="23" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3419640" y="1652760"/>
-          <a:ext cx="165960" cy="169560"/>
+          <a:ext cx="165240" cy="168840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2690,19 +2617,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>53280</xdr:colOff>
+      <xdr:colOff>52560</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>212400</xdr:rowOff>
+      <xdr:rowOff>211680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="CustomShape 1"/>
+        <xdr:cNvPr id="24" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3669120" y="1652400"/>
-          <a:ext cx="679680" cy="160200"/>
+          <a:ext cx="678960" cy="159480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2753,19 +2680,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>193680</xdr:rowOff>
+      <xdr:rowOff>192960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="CustomShape 1"/>
+        <xdr:cNvPr id="25" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4511520" y="1624320"/>
-          <a:ext cx="165960" cy="169560"/>
+          <a:ext cx="165240" cy="168840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2894,19 +2821,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>249840</xdr:colOff>
+      <xdr:colOff>249120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:rowOff>183240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="CustomShape 1"/>
+        <xdr:cNvPr id="26" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4725000" y="1623960"/>
-          <a:ext cx="679680" cy="160200"/>
+          <a:ext cx="678960" cy="159480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,19 +2884,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>286200</xdr:colOff>
+      <xdr:colOff>285480</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="CustomShape 1"/>
+        <xdr:cNvPr id="27" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="682560" y="1515600"/>
-          <a:ext cx="1608120" cy="417240"/>
+          <a:ext cx="1607400" cy="416520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3031,19 +2958,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>228240</xdr:colOff>
+      <xdr:colOff>227520</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>9000</xdr:rowOff>
+      <xdr:rowOff>8280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="CustomShape 1"/>
+        <xdr:cNvPr id="28" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7122960" y="1274760"/>
-          <a:ext cx="1123920" cy="334440"/>
+          <a:ext cx="1123200" cy="333720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3105,19 +3032,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>153720</xdr:colOff>
+      <xdr:colOff>153000</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>18000</xdr:rowOff>
+      <xdr:rowOff>17280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="CustomShape 1"/>
+        <xdr:cNvPr id="29" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5957280" y="1285920"/>
-          <a:ext cx="1069560" cy="332280"/>
+          <a:ext cx="1068840" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3188,19 +3115,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>66240</xdr:colOff>
+      <xdr:colOff>65520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="CustomShape 1"/>
+        <xdr:cNvPr id="30" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7111800" y="1685160"/>
-          <a:ext cx="1259280" cy="334440"/>
+          <a:ext cx="1258560" cy="333720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3262,19 +3189,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>142560</xdr:colOff>
+      <xdr:colOff>141840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>199800</xdr:rowOff>
+      <xdr:rowOff>199080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="CustomShape 1"/>
+        <xdr:cNvPr id="31" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5946120" y="1696320"/>
-          <a:ext cx="1069560" cy="332280"/>
+          <a:ext cx="1068840" cy="331560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3336,19 +3263,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>177840</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="CustomShape 1"/>
+        <xdr:cNvPr id="32" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8395920" y="1672200"/>
-          <a:ext cx="351720" cy="334440"/>
+          <a:ext cx="351000" cy="333720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3410,19 +3337,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>168840</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="CustomShape 1"/>
+        <xdr:cNvPr id="33" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8780400" y="1663200"/>
-          <a:ext cx="1259280" cy="334440"/>
+          <a:ext cx="1258560" cy="333720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3489,19 +3416,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>64440</xdr:rowOff>
+      <xdr:rowOff>63720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvPr id="34" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="572760" y="228960"/>
-          <a:ext cx="10545120" cy="6922080"/>
+          <a:ext cx="10544400" cy="6921360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3541,9 +3468,85 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>235440</xdr:colOff>
+      <xdr:colOff>234720</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="572760" y="228960"/>
+          <a:ext cx="10544400" cy="364680"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="004586"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>画面名</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>197640</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>48600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>244800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3552,8 +3555,1283 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
+          <a:off x="770400" y="2106000"/>
+          <a:ext cx="10070640" cy="4151160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="aecf00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="3b3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>各種、注文した商品を表示する。</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>82080</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>46800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>218160</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>159480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9819000" y="6447600"/>
+          <a:ext cx="995400" cy="341280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffff00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="3b3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>EXCEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="3b3838"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>出力</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>137880</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>214200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>66600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>88560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9302040" y="7072200"/>
+          <a:ext cx="4224600" cy="1017360"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -26629"/>
+            <a:gd name="adj2" fmla="val -77115"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="729fcf"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="3465a4"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="0" rIns="0" tIns="0" bIns="0" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>グリッドで表示されている内容を</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>EXCEL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>に出力する</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>Excel</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>の最上行をグリッドのカラム名、以下グリッドの情報</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+              <a:latin typeface="Times New Roman"/>
+            </a:rPr>
+            <a:t>を入れ込む</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>192960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>267840</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484000" y="686160"/>
+          <a:ext cx="1793160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183240</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756000" y="686160"/>
+          <a:ext cx="1667160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>依頼</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>193320</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2484360" y="1046160"/>
+          <a:ext cx="1793160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>配達員ステータス</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>132120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="756360" y="1046160"/>
+          <a:ext cx="1666800" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>配達員ステータス</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>191880</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266760</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2482920" y="1406160"/>
+          <a:ext cx="1793160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>運搬ステータス</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>182160</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>130680</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="754920" y="1406160"/>
+          <a:ext cx="1666800" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>運搬ステータス</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142560</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>217440</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6156360" y="686160"/>
+          <a:ext cx="1793160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>店舗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>132840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>81360</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>103320</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4428360" y="686160"/>
+          <a:ext cx="1666800" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>店舗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141120</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6154920" y="1046160"/>
+          <a:ext cx="1793160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>配達員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>131760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>79920</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4426920" y="1046160"/>
+          <a:ext cx="1666800" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>配達員</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>141120</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>216000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6154920" y="1406160"/>
+          <a:ext cx="1793160" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>依頼受付日</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>131400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>34560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>79920</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>137520</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4426920" y="1406160"/>
+          <a:ext cx="1666800" cy="331560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ff420e"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="ctr">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="ffffff"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri"/>
+            </a:rPr>
+            <a:t>依頼受付日</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" spc="-1" strike="noStrike">
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>234720</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>63720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
           <a:off x="572760" y="228960"/>
-          <a:ext cx="10545120" cy="365400"/>
+          <a:ext cx="10544400" cy="6921360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="ffffff"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="004586"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>234720</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="CustomShape 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="572760" y="228960"/>
+          <a:ext cx="10544400" cy="364680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3617,19 +4895,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
-      <xdr:colOff>284400</xdr:colOff>
+      <xdr:colOff>283680</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="CustomShape 1"/>
+        <xdr:cNvPr id="53" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889920" y="784800"/>
-          <a:ext cx="9417600" cy="2466360"/>
+          <a:ext cx="9416880" cy="2465640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3691,19 +4969,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>282240</xdr:colOff>
+      <xdr:colOff>281520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="CustomShape 1"/>
+        <xdr:cNvPr id="54" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6199560" y="5177880"/>
-          <a:ext cx="1242000" cy="469800"/>
+          <a:ext cx="1241280" cy="469080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3765,19 +5043,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>153720</xdr:rowOff>
+      <xdr:rowOff>153000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="CustomShape 1"/>
+        <xdr:cNvPr id="55" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3561480" y="5170320"/>
-          <a:ext cx="2471400" cy="469800"/>
+          <a:ext cx="2470680" cy="469080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3839,19 +5117,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="CustomShape 1"/>
+        <xdr:cNvPr id="56" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889920" y="5837040"/>
-          <a:ext cx="3903120" cy="500400"/>
+          <a:ext cx="3902400" cy="499680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3913,19 +5191,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>142560</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="CustomShape 1"/>
+        <xdr:cNvPr id="57" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889920" y="3406320"/>
-          <a:ext cx="4346280" cy="1536840"/>
+          <a:ext cx="4345560" cy="1536120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3987,19 +5265,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="CustomShape 1"/>
+        <xdr:cNvPr id="58" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="919080" y="5210280"/>
-          <a:ext cx="2072880" cy="427320"/>
+          <a:ext cx="2072160" cy="426600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4061,19 +5339,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>38880</xdr:colOff>
+      <xdr:colOff>38160</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="CustomShape 1"/>
+        <xdr:cNvPr id="59" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5066640" y="5801040"/>
-          <a:ext cx="5854680" cy="1170360"/>
+          <a:ext cx="5853960" cy="1169640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4129,7 +5407,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -4140,19 +5418,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>187920</xdr:rowOff>
+      <xdr:rowOff>187200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="CustomShape 1"/>
+        <xdr:cNvPr id="60" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="580320" y="228600"/>
-          <a:ext cx="3926160" cy="5445720"/>
+          <a:ext cx="3925440" cy="5445000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4192,19 +5470,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210240</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="CustomShape 1"/>
+        <xdr:cNvPr id="61" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="580320" y="228600"/>
-          <a:ext cx="3926160" cy="286920"/>
+          <a:ext cx="3925440" cy="286200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4266,19 +5544,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="CustomShape 1"/>
+        <xdr:cNvPr id="62" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="889560" y="784800"/>
-          <a:ext cx="3315600" cy="1749960"/>
+          <a:ext cx="3314880" cy="1749240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4340,19 +5618,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="CustomShape 1"/>
+        <xdr:cNvPr id="63" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3401640" y="3802320"/>
-          <a:ext cx="975240" cy="469800"/>
+          <a:ext cx="974520" cy="469080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4414,19 +5692,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>180360</xdr:colOff>
+      <xdr:colOff>179640</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="CustomShape 1"/>
+        <xdr:cNvPr id="64" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="866520" y="3787200"/>
-          <a:ext cx="2463840" cy="469800"/>
+          <a:ext cx="2463120" cy="469080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4488,19 +5766,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>88920</xdr:colOff>
+      <xdr:colOff>88200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="CustomShape 1"/>
+        <xdr:cNvPr id="65" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="847080" y="4427280"/>
-          <a:ext cx="3537360" cy="500400"/>
+          <a:ext cx="3536640" cy="499680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4562,19 +5840,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>226440</xdr:colOff>
+      <xdr:colOff>225720</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="CustomShape 1"/>
+        <xdr:cNvPr id="66" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="882000" y="2621160"/>
-          <a:ext cx="2494440" cy="1072080"/>
+          <a:ext cx="2493720" cy="1071360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4636,19 +5914,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>58680</xdr:colOff>
+      <xdr:colOff>57960</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="CustomShape 1"/>
+        <xdr:cNvPr id="67" name="CustomShape 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="849600" y="5038920"/>
-          <a:ext cx="2072880" cy="427320"/>
+          <a:ext cx="2072160" cy="426600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7463,7 +8741,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7487,7 +8765,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7511,7 +8789,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7536,6 +8814,30 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.1015625" defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
